--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamst\OneDrive\Escritorio\proyectoApprende-main\testeo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Asignaturas\8°Semestre\ANALISIS\proyectoApprende\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FB0B6F-F47D-4B4F-AEA8-BB3A1DD727B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8912AD7-CB71-4272-8C60-9AB21B17A4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5490" yWindow="2625" windowWidth="17700" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,9 +340,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,42 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Asignaturas\8°Semestre\ANALISIS\proyectoApprende\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8912AD7-CB71-4272-8C60-9AB21B17A4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="2625" windowWidth="17700" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,22 +53,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -335,25 +394,797 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="54.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
+    <col width="25.42578125" customWidth="1" min="2" max="2"/>
+    <col width="51.28515625" customWidth="1" min="3" max="3"/>
+    <col width="46.7109375" customWidth="1" min="4" max="4"/>
+    <col width="32" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="G2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
+      <c r="G16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
+      <c r="F18" s="1" t="n"/>
+      <c r="G18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
+      <c r="F19" s="1" t="n"/>
+      <c r="G19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
+      <c r="F20" s="1" t="n"/>
+      <c r="G20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
+      <c r="F21" s="1" t="n"/>
+      <c r="G21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
+      <c r="F23" s="1" t="n"/>
+      <c r="G23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="1" t="n"/>
+      <c r="G24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="1" t="n"/>
+      <c r="G25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="n"/>
+      <c r="F26" s="1" t="n"/>
+      <c r="G26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="n"/>
+      <c r="G27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="n"/>
+      <c r="G28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
+      <c r="G29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
+      <c r="G30" s="1" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="n"/>
+      <c r="G31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Anderson</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$8.000</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/disenador-grafico-especialista-illustration-lettering-tengo-magister-marketing-digital-alto-conocimiento-diseno.html</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Isidora</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$6.500</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/estudiante-pedagogia-ingles-hace-clases-online-para-todas-las-edades-ingles-espanol.html</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Carolina Fernanda</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$6.000</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/lettering-desde-casa-super-facil-aprendras-manera-sencilla-escribir-hermoso.html</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Anderson Benitez</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$20.000</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/estudiante-ingenieria-civil-industrial-disenador-artista-preparado-para-cualquier-desafio-ensenar-mis-conocimientos-otros.html</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Gala</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$10.000</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/clases-practicas-basicas-caligrafia-lettering-forma-personalizada-providencia.html</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Bastian</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$6.500</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/egresado-ilustracion-profesional-clases-personalizadas-relajadas-viendo-dibujo-desde-varios-puntos-vista.html</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nicolas Felipe</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$10.000</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/actual-estudiante-arquitectura-cercano-mundo-del-arte-desde-siempre-con-afinidad-artistica-hacia-ilustracion-tradicional.html</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>8</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Carla</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>$12.000</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/clases-caligrafia-lettering-niveles-inicial-avanzado-individual-grupales.html</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sebastian</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$8.000</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/disenador-grafico-profesional-amplio-conocimiento-areas-tanto-analogas-como-digitales-escribeme-para-consultas-569-8459-4484.html</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Mélanie</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$18.000</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/hola-eres-los-buscan-profesionalismo-area-las-artes-quieres-buenos-consejos-para-ser-buen-artista-bienvenidos.html</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>11</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Anderson</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>$8.000</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/disenador-grafico-especialista-illustration-lettering-tengo-magister-marketing-digital-alto-conocimiento-diseno.html</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>12</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Isidora</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>$6.500</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/estudiante-pedagogia-ingles-hace-clases-online-para-todas-las-edades-ingles-espanol.html</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>13</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Carolina Fernanda</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$6.000</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/lettering-desde-casa-super-facil-aprendras-manera-sencilla-escribir-hermoso.html</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>14</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Anderson Benitez</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>$20.000</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/estudiante-ingenieria-civil-industrial-disenador-artista-preparado-para-cualquier-desafio-ensenar-mis-conocimientos-otros.html</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>15</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Gala</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>$10.000</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/clases-practicas-basicas-caligrafia-lettering-forma-personalizada-providencia.html</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>16</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Bastian</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>$6.500</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/egresado-ilustracion-profesional-clases-personalizadas-relajadas-viendo-dibujo-desde-varios-puntos-vista.html</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>17</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nicolas Felipe</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>$10.000</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/actual-estudiante-arquitectura-cercano-mundo-del-arte-desde-siempre-con-afinidad-artistica-hacia-ilustracion-tradicional.html</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>18</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Carla</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>$12.000</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/clases-caligrafia-lettering-niveles-inicial-avanzado-individual-grupales.html</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>19</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Sebastian</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>$8.000</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/disenador-grafico-profesional-amplio-conocimiento-areas-tanto-analogas-como-digitales-escribeme-para-consultas-569-8459-4484.html</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>20</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Mélanie</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>$18.000</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.superprof.cl/hola-eres-los-buscan-profesionalismo-area-las-artes-quieres-buenos-consejos-para-ser-buen-artista-bienvenidos.html</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>23-11-24</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>